--- a/sched_tbl.xlsx
+++ b/sched_tbl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>CLASS CODE</t>
   </si>
@@ -218,7 +218,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +228,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF666666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -267,6 +279,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,15 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2067</v>
       </c>
@@ -639,8 +653,10 @@
       <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2069</v>
       </c>
@@ -672,7 +688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2068</v>
       </c>
@@ -704,7 +720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2064</v>
       </c>
@@ -736,7 +752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>9211</v>
       </c>
@@ -768,7 +784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2066</v>
       </c>
@@ -800,27 +816,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2066</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
       <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2070</v>
       </c>
@@ -852,7 +878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2065</v>
       </c>
